--- a/files/leopard-api错误码.xlsx
+++ b/files/leopard-api错误码.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangxiaogang/myproject/leopard/ErrorCode/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>错误代码</t>
   </si>
@@ -170,10 +180,6 @@
   </si>
   <si>
     <t>Model can not be null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的模型名字为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,12 +425,113 @@
     <t>请检查数据值或是否为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>aggregate data undefined</t>
+  </si>
+  <si>
+    <t>输入的模型名字为空或者无效</t>
+    <rPh sb="9" eb="10">
+      <t>huo z</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wu xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainbody no find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkParameters exception</t>
+  </si>
+  <si>
+    <t>通用统计传入数据无效</t>
+    <rPh sb="0" eb="1">
+      <t>tong y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chuan ru</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joins不是一个数组</t>
+    <rPh sb="5" eb="6">
+      <t>bu s</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter 不是一个数组</t>
+    <rPh sb="7" eb="8">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi g</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no find sale model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到有效模型</t>
+    <rPh sb="0" eb="1">
+      <t>wei fa xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhao dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到模型方法</t>
+    <rPh sb="0" eb="1">
+      <t>wei zhao dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mo xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +579,27 @@
       <name val="隶书"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF66CC33"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -542,10 +670,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -578,9 +718,22 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -882,20 +1035,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="33" style="7" customWidth="1"/>
-    <col min="4" max="4" width="70.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="4" max="4" width="70.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="10"/>
+    <col min="6" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -962,7 +1115,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>28</v>
@@ -1082,10 +1235,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>20100</v>
       </c>
@@ -1093,7 +1246,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>39</v>
@@ -1110,26 +1263,26 @@
         <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>20102</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -1137,13 +1290,13 @@
         <v>20200</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1151,13 +1304,13 @@
         <v>20201</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -1165,13 +1318,13 @@
         <v>20202</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1179,7 +1332,7 @@
         <v>20203</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1187,10 +1340,10 @@
         <v>20204</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -1198,10 +1351,10 @@
         <v>20205</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -1209,158 +1362,210 @@
         <v>20206</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>20207</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
-        <v>20300</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>20208</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
-        <v>20301</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>85</v>
+        <v>20209</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>59</v>
+      <c r="A29" s="7">
+        <v>20210</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
-        <v>20400</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>61</v>
+      <c r="A30" s="12">
+        <v>20211</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
-        <v>20401</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
-        <v>20500</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
-        <v>20501</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
-        <v>20502</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
-        <v>20503</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
+        <v>20300</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <v>20301</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>20400</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
+        <v>20401</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
+        <v>20500</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <v>20501</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
+        <v>20502</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
+        <v>20503</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
         <v>20600</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>86</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
